--- a/Womens_Data_Duplicate_MRP.xlsx
+++ b/Womens_Data_Duplicate_MRP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="129">
   <si>
     <t>Itemcode</t>
   </si>
@@ -133,10 +133,7 @@
     <t>ESS-2 PC PACK</t>
   </si>
   <si>
-    <t>C-4659</t>
-  </si>
-  <si>
-    <t>C-5564</t>
+    <t>PN-04514-1</t>
   </si>
   <si>
     <t>STRETCH</t>
@@ -190,9 +187,6 @@
     <t>2 PACK T-SHIRT</t>
   </si>
   <si>
-    <t>3/4TH WITH BELT</t>
-  </si>
-  <si>
     <t>AIRWAYS</t>
   </si>
   <si>
@@ -226,7 +220,7 @@
     <t>FLORENZA</t>
   </si>
   <si>
-    <t>AURA</t>
+    <t>PINK NINE</t>
   </si>
   <si>
     <t>BLACK</t>
@@ -259,12 +253,6 @@
     <t>ASSORTED</t>
   </si>
   <si>
-    <t>MAROON</t>
-  </si>
-  <si>
-    <t>RANI</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -292,16 +280,7 @@
     <t>5XL</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>44</t>
+    <t>4XL</t>
   </si>
   <si>
     <t>PCS</t>
@@ -358,9 +337,6 @@
     <t>D/M</t>
   </si>
   <si>
-    <t>MIDI</t>
-  </si>
-  <si>
     <t>WOMENS</t>
   </si>
   <si>
@@ -406,7 +382,7 @@
     <t>VASTRA CREATIONS</t>
   </si>
   <si>
-    <t>AURA ATTIRE</t>
+    <t>J 9 FASHION</t>
   </si>
   <si>
     <t>India</t>
@@ -782,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,7 +846,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C2">
         <v>1809120315</v>
@@ -900,7 +876,7 @@
         <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M2">
         <v>200</v>
@@ -909,10 +885,10 @@
         <v>350</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q2" t="s">
         <v>28</v>
@@ -933,16 +909,16 @@
         <v>28</v>
       </c>
       <c r="W2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y2">
         <v>7117</v>
       </c>
       <c r="Z2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -950,7 +926,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C3">
         <v>2002200004</v>
@@ -962,25 +938,25 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M3">
         <v>614</v>
@@ -989,10 +965,10 @@
         <v>945</v>
       </c>
       <c r="O3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
@@ -1013,16 +989,16 @@
         <v>28</v>
       </c>
       <c r="W3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="X3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y3">
         <v>6204</v>
       </c>
       <c r="Z3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -1030,7 +1006,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C4">
         <v>2003060019</v>
@@ -1042,25 +1018,25 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M4">
         <v>614</v>
@@ -1069,10 +1045,10 @@
         <v>945</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
@@ -1093,16 +1069,16 @@
         <v>28</v>
       </c>
       <c r="W4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="X4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y4">
         <v>6204</v>
       </c>
       <c r="Z4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -1110,7 +1086,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="C5">
         <v>2003190162</v>
@@ -1137,10 +1113,10 @@
         <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M5">
         <v>95</v>
@@ -1149,10 +1125,10 @@
         <v>200</v>
       </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
@@ -1173,16 +1149,16 @@
         <v>28</v>
       </c>
       <c r="W5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y5">
         <v>4203</v>
       </c>
       <c r="Z5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1190,7 +1166,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C6">
         <v>2003190168</v>
@@ -1217,10 +1193,10 @@
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M6">
         <v>95</v>
@@ -1229,10 +1205,10 @@
         <v>250</v>
       </c>
       <c r="O6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q6" t="s">
         <v>28</v>
@@ -1253,16 +1229,16 @@
         <v>28</v>
       </c>
       <c r="W6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y6">
         <v>4203</v>
       </c>
       <c r="Z6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -1270,7 +1246,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C7">
         <v>2009030030</v>
@@ -1282,25 +1258,25 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M7">
         <v>668</v>
@@ -1309,10 +1285,10 @@
         <v>1095</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q7" t="s">
         <v>28</v>
@@ -1333,16 +1309,16 @@
         <v>28</v>
       </c>
       <c r="W7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="X7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y7">
         <v>6204</v>
       </c>
       <c r="Z7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -1350,7 +1326,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C8">
         <v>2010110163</v>
@@ -1362,25 +1338,25 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8">
         <v>495</v>
@@ -1389,10 +1365,10 @@
         <v>895</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
@@ -1413,16 +1389,16 @@
         <v>28</v>
       </c>
       <c r="W8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y8">
         <v>6204</v>
       </c>
       <c r="Z8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -1430,7 +1406,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C9">
         <v>2011050507</v>
@@ -1442,25 +1418,25 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M9">
         <v>565</v>
@@ -1469,10 +1445,10 @@
         <v>1045</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q9" t="s">
         <v>28</v>
@@ -1493,16 +1469,16 @@
         <v>28</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y9">
         <v>6204</v>
       </c>
       <c r="Z9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -1510,7 +1486,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C10">
         <v>2011270146</v>
@@ -1522,7 +1498,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
@@ -1540,7 +1516,7 @@
         <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M10">
         <v>250</v>
@@ -1549,10 +1525,10 @@
         <v>450</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q10" t="s">
         <v>28</v>
@@ -1573,16 +1549,16 @@
         <v>28</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y10">
         <v>6204</v>
       </c>
       <c r="Z10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -1590,7 +1566,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C11">
         <v>2012120073</v>
@@ -1602,25 +1578,25 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M11">
         <v>495</v>
@@ -1629,10 +1605,10 @@
         <v>895</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q11" t="s">
         <v>28</v>
@@ -1653,16 +1629,16 @@
         <v>28</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y11">
         <v>6204</v>
       </c>
       <c r="Z11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -1670,7 +1646,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C12">
         <v>2012120076</v>
@@ -1682,25 +1658,25 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M12">
         <v>495</v>
@@ -1709,10 +1685,10 @@
         <v>895</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q12" t="s">
         <v>28</v>
@@ -1733,16 +1709,16 @@
         <v>28</v>
       </c>
       <c r="W12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y12">
         <v>6204</v>
       </c>
       <c r="Z12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA12">
         <v>1</v>
@@ -1750,7 +1726,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C13">
         <v>2012200218</v>
@@ -1762,25 +1738,25 @@
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
         <v>89</v>
-      </c>
-      <c r="L13" t="s">
-        <v>96</v>
       </c>
       <c r="M13">
         <v>1255</v>
@@ -1789,10 +1765,10 @@
         <v>2195</v>
       </c>
       <c r="O13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q13" t="s">
         <v>28</v>
@@ -1813,16 +1789,16 @@
         <v>28</v>
       </c>
       <c r="W13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y13">
         <v>6203</v>
       </c>
       <c r="Z13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -1830,7 +1806,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C14">
         <v>2106160070</v>
@@ -1860,7 +1836,7 @@
         <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M14">
         <v>250</v>
@@ -1869,10 +1845,10 @@
         <v>250</v>
       </c>
       <c r="O14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q14" t="s">
         <v>28</v>
@@ -1893,16 +1869,16 @@
         <v>28</v>
       </c>
       <c r="W14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y14">
         <v>6205</v>
       </c>
       <c r="Z14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AA14">
         <v>1</v>
@@ -1910,7 +1886,7 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C15">
         <v>2109160293</v>
@@ -1940,7 +1916,7 @@
         <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M15">
         <v>50</v>
@@ -1949,10 +1925,10 @@
         <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q15" t="s">
         <v>28</v>
@@ -1973,16 +1949,16 @@
         <v>28</v>
       </c>
       <c r="W15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y15">
         <v>6201</v>
       </c>
       <c r="Z15" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA15">
         <v>1</v>
@@ -1990,7 +1966,7 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C16">
         <v>2110130397</v>
@@ -2002,13 +1978,13 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
         <v>28</v>
@@ -2020,7 +1996,7 @@
         <v>28</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M16">
         <v>32</v>
@@ -2029,10 +2005,10 @@
         <v>80</v>
       </c>
       <c r="O16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q16" t="s">
         <v>28</v>
@@ -2053,16 +2029,16 @@
         <v>28</v>
       </c>
       <c r="W16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="X16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y16">
         <v>6201</v>
       </c>
       <c r="Z16" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -2070,7 +2046,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C17">
         <v>2110200334</v>
@@ -2100,7 +2076,7 @@
         <v>28</v>
       </c>
       <c r="L17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M17">
         <v>40</v>
@@ -2109,10 +2085,10 @@
         <v>60</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q17" t="s">
         <v>28</v>
@@ -2133,16 +2109,16 @@
         <v>28</v>
       </c>
       <c r="W17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="X17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y17">
         <v>6201</v>
       </c>
       <c r="Z17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -2150,7 +2126,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C18">
         <v>2201080212</v>
@@ -2162,13 +2138,13 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
         <v>28</v>
@@ -2180,7 +2156,7 @@
         <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M18">
         <v>22</v>
@@ -2189,10 +2165,10 @@
         <v>70</v>
       </c>
       <c r="O18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q18" t="s">
         <v>28</v>
@@ -2213,16 +2189,16 @@
         <v>28</v>
       </c>
       <c r="W18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="X18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y18">
         <v>6201</v>
       </c>
       <c r="Z18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA18">
         <v>1</v>
@@ -2230,7 +2206,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C19">
         <v>2201080250</v>
@@ -2242,13 +2218,13 @@
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
         <v>28</v>
@@ -2260,7 +2236,7 @@
         <v>28</v>
       </c>
       <c r="L19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M19">
         <v>60</v>
@@ -2269,10 +2245,10 @@
         <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q19" t="s">
         <v>28</v>
@@ -2293,16 +2269,16 @@
         <v>28</v>
       </c>
       <c r="W19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="X19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y19">
         <v>6201</v>
       </c>
       <c r="Z19" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA19">
         <v>1</v>
@@ -2310,7 +2286,7 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C20">
         <v>2201140015</v>
@@ -2322,13 +2298,13 @@
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
         <v>28</v>
@@ -2340,7 +2316,7 @@
         <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M20">
         <v>60</v>
@@ -2349,10 +2325,10 @@
         <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q20" t="s">
         <v>28</v>
@@ -2373,16 +2349,16 @@
         <v>28</v>
       </c>
       <c r="W20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="X20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y20">
         <v>6201</v>
       </c>
       <c r="Z20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA20">
         <v>1</v>
@@ -2390,7 +2366,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="C21">
         <v>2203160155</v>
@@ -2402,25 +2378,25 @@
         <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M21">
         <v>1674</v>
@@ -2429,40 +2405,40 @@
         <v>1895</v>
       </c>
       <c r="O21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21" t="s">
         <v>115</v>
       </c>
-      <c r="Q21" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" t="s">
-        <v>28</v>
-      </c>
-      <c r="U21" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" t="s">
-        <v>28</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>123</v>
-      </c>
-      <c r="X21" t="s">
-        <v>131</v>
       </c>
       <c r="Y21">
         <v>6204</v>
       </c>
       <c r="Z21" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA21">
         <v>1</v>
@@ -2470,7 +2446,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="1">
-        <v>1242</v>
+        <v>1204</v>
       </c>
       <c r="C22">
         <v>2204040005</v>
@@ -2482,25 +2458,25 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M22">
         <v>765</v>
@@ -2509,10 +2485,10 @@
         <v>1395</v>
       </c>
       <c r="O22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q22" t="s">
         <v>28</v>
@@ -2533,16 +2509,16 @@
         <v>28</v>
       </c>
       <c r="W22" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="X22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y22">
         <v>6204</v>
       </c>
       <c r="Z22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA22">
         <v>1</v>
@@ -2550,7 +2526,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="1">
-        <v>1528</v>
+        <v>1488</v>
       </c>
       <c r="C23">
         <v>2204140524</v>
@@ -2562,7 +2538,7 @@
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -2571,16 +2547,16 @@
         <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M23">
         <v>595</v>
@@ -2589,11 +2565,11 @@
         <v>1095</v>
       </c>
       <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s">
         <v>107</v>
       </c>
-      <c r="P23" t="s">
-        <v>115</v>
-      </c>
       <c r="Q23" t="s">
         <v>28</v>
       </c>
@@ -2613,16 +2589,16 @@
         <v>28</v>
       </c>
       <c r="W23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="X23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y23">
         <v>6205</v>
       </c>
       <c r="Z23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA23">
         <v>1</v>
@@ -2630,7 +2606,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="1">
-        <v>1807</v>
+        <v>1759</v>
       </c>
       <c r="C24">
         <v>2204230435</v>
@@ -2642,25 +2618,25 @@
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M24">
         <v>71</v>
@@ -2669,10 +2645,10 @@
         <v>103</v>
       </c>
       <c r="O24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q24" t="s">
         <v>28</v>
@@ -2693,16 +2669,16 @@
         <v>28</v>
       </c>
       <c r="W24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="X24" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y24">
         <v>6115</v>
       </c>
       <c r="Z24" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA24">
         <v>1</v>
@@ -2710,7 +2686,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="1">
-        <v>2485</v>
+        <v>2425</v>
       </c>
       <c r="C25">
         <v>2207070135</v>
@@ -2722,25 +2698,25 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" t="s">
         <v>89</v>
-      </c>
-      <c r="L25" t="s">
-        <v>96</v>
       </c>
       <c r="M25">
         <v>499</v>
@@ -2749,10 +2725,10 @@
         <v>899</v>
       </c>
       <c r="O25" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q25" t="s">
         <v>28</v>
@@ -2773,16 +2749,16 @@
         <v>28</v>
       </c>
       <c r="W25" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="X25" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y25">
         <v>6109</v>
       </c>
       <c r="Z25" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA25">
         <v>1</v>
@@ -2790,7 +2766,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="1">
-        <v>3279</v>
+        <v>3201</v>
       </c>
       <c r="C26">
         <v>2302020317</v>
@@ -2802,7 +2778,7 @@
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
@@ -2811,16 +2787,16 @@
         <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" t="s">
         <v>89</v>
-      </c>
-      <c r="L26" t="s">
-        <v>96</v>
       </c>
       <c r="M26">
         <v>1100</v>
@@ -2829,10 +2805,10 @@
         <v>1695</v>
       </c>
       <c r="O26" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P26" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q26" t="s">
         <v>28</v>
@@ -2853,16 +2829,16 @@
         <v>28</v>
       </c>
       <c r="W26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="X26" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y26">
         <v>6203</v>
       </c>
       <c r="Z26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA26">
         <v>1</v>
@@ -2870,7 +2846,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="1">
-        <v>3281</v>
+        <v>3203</v>
       </c>
       <c r="C27">
         <v>2302030041</v>
@@ -2882,7 +2858,7 @@
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
         <v>28</v>
@@ -2900,7 +2876,7 @@
         <v>28</v>
       </c>
       <c r="L27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M27">
         <v>600</v>
@@ -2909,10 +2885,10 @@
         <v>1595</v>
       </c>
       <c r="O27" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q27" t="s">
         <v>28</v>
@@ -2933,16 +2909,16 @@
         <v>28</v>
       </c>
       <c r="W27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="X27" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y27">
         <v>6206</v>
       </c>
       <c r="Z27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA27">
         <v>1</v>
@@ -2950,7 +2926,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="1">
-        <v>4598</v>
+        <v>4490</v>
       </c>
       <c r="C28">
         <v>2310070205</v>
@@ -2980,7 +2956,7 @@
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2989,10 +2965,10 @@
         <v>250</v>
       </c>
       <c r="O28" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q28" t="s">
         <v>28</v>
@@ -3013,16 +2989,16 @@
         <v>28</v>
       </c>
       <c r="W28" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X28" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y28">
         <v>6214</v>
       </c>
       <c r="Z28" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA28">
         <v>1</v>
@@ -3030,7 +3006,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="1">
-        <v>4614</v>
+        <v>4506</v>
       </c>
       <c r="C29">
         <v>2310090141</v>
@@ -3042,25 +3018,25 @@
         <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" t="s">
         <v>89</v>
-      </c>
-      <c r="L29" t="s">
-        <v>96</v>
       </c>
       <c r="M29">
         <v>1680</v>
@@ -3069,10 +3045,10 @@
         <v>2755</v>
       </c>
       <c r="O29" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q29" t="s">
         <v>28</v>
@@ -3093,16 +3069,16 @@
         <v>28</v>
       </c>
       <c r="W29" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="X29" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y29">
         <v>6211</v>
       </c>
       <c r="Z29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA29">
         <v>1</v>
@@ -3110,7 +3086,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="1">
-        <v>4846</v>
+        <v>4737</v>
       </c>
       <c r="C30">
         <v>2310260047</v>
@@ -3122,7 +3098,7 @@
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
         <v>28</v>
@@ -3137,10 +3113,10 @@
         <v>28</v>
       </c>
       <c r="K30" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" t="s">
         <v>89</v>
-      </c>
-      <c r="L30" t="s">
-        <v>96</v>
       </c>
       <c r="M30">
         <v>1295</v>
@@ -3149,10 +3125,10 @@
         <v>3595</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q30" t="s">
         <v>28</v>
@@ -3173,16 +3149,16 @@
         <v>28</v>
       </c>
       <c r="W30" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="X30" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y30">
         <v>6204</v>
       </c>
       <c r="Z30" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -3190,7 +3166,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="1">
-        <v>4893</v>
+        <v>4784</v>
       </c>
       <c r="C31">
         <v>2310290620</v>
@@ -3202,13 +3178,13 @@
         <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I31" t="s">
         <v>28</v>
@@ -3217,10 +3193,10 @@
         <v>28</v>
       </c>
       <c r="K31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M31">
         <v>975</v>
@@ -3229,10 +3205,10 @@
         <v>1795</v>
       </c>
       <c r="O31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q31" t="s">
         <v>28</v>
@@ -3253,16 +3229,16 @@
         <v>28</v>
       </c>
       <c r="W31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X31" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y31">
         <v>5208</v>
       </c>
       <c r="Z31" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AA31">
         <v>1</v>
@@ -3270,7 +3246,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="1">
-        <v>5868</v>
+        <v>5735</v>
       </c>
       <c r="C32">
         <v>2402030245</v>
@@ -3282,25 +3258,25 @@
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L32" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M32">
         <v>680.63</v>
@@ -3309,10 +3285,10 @@
         <v>1089</v>
       </c>
       <c r="O32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q32" t="s">
         <v>28</v>
@@ -3321,7 +3297,7 @@
         <v>28</v>
       </c>
       <c r="S32" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="T32" t="s">
         <v>28</v>
@@ -3333,16 +3309,16 @@
         <v>28</v>
       </c>
       <c r="W32" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y32">
         <v>6109</v>
       </c>
       <c r="Z32" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA32">
         <v>1</v>
@@ -3350,7 +3326,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="1">
-        <v>6223</v>
+        <v>6080</v>
       </c>
       <c r="C33">
         <v>2402280222</v>
@@ -3362,7 +3338,7 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
         <v>28</v>
@@ -3380,7 +3356,7 @@
         <v>28</v>
       </c>
       <c r="L33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3389,10 +3365,10 @@
         <v>1695</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P33" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q33" t="s">
         <v>28</v>
@@ -3413,16 +3389,16 @@
         <v>28</v>
       </c>
       <c r="W33" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X33" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y33">
         <v>6203</v>
       </c>
       <c r="Z33" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA33">
         <v>1</v>
@@ -3430,7 +3406,7 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="1">
-        <v>6224</v>
+        <v>6081</v>
       </c>
       <c r="C34">
         <v>2402280223</v>
@@ -3442,7 +3418,7 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
@@ -3460,7 +3436,7 @@
         <v>28</v>
       </c>
       <c r="L34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3469,10 +3445,10 @@
         <v>2295</v>
       </c>
       <c r="O34" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q34" t="s">
         <v>28</v>
@@ -3493,16 +3469,16 @@
         <v>28</v>
       </c>
       <c r="W34" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="X34" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y34">
         <v>6204</v>
       </c>
       <c r="Z34" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA34">
         <v>1</v>
@@ -3510,10 +3486,10 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="1">
-        <v>7265</v>
+        <v>7303</v>
       </c>
       <c r="C35">
-        <v>2404040034</v>
+        <v>2404070287</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
@@ -3522,37 +3498,37 @@
         <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="K35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L35" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M35">
-        <v>695</v>
+        <v>1034</v>
       </c>
       <c r="N35">
-        <v>1995</v>
+        <v>1659</v>
       </c>
       <c r="O35" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q35" t="s">
         <v>28</v>
@@ -3573,16 +3549,16 @@
         <v>28</v>
       </c>
       <c r="W35" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="X35" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y35">
-        <v>6204</v>
+        <v>6206</v>
       </c>
       <c r="Z35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA35">
         <v>1</v>
@@ -3590,10 +3566,10 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="1">
-        <v>7266</v>
+        <v>7304</v>
       </c>
       <c r="C36">
-        <v>2404040035</v>
+        <v>2404070288</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
@@ -3602,37 +3578,37 @@
         <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="J36" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="K36" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M36">
-        <v>695</v>
+        <v>1034</v>
       </c>
       <c r="N36">
-        <v>1995</v>
+        <v>1659</v>
       </c>
       <c r="O36" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q36" t="s">
         <v>28</v>
@@ -3653,498 +3629,18 @@
         <v>28</v>
       </c>
       <c r="W36" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="X36" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y36">
-        <v>6204</v>
+        <v>6206</v>
       </c>
       <c r="Z36" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AA36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
-      <c r="A37" s="1">
-        <v>7267</v>
-      </c>
-      <c r="C37">
-        <v>2404040036</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37" t="s">
-        <v>94</v>
-      </c>
-      <c r="L37" t="s">
-        <v>96</v>
-      </c>
-      <c r="M37">
-        <v>695</v>
-      </c>
-      <c r="N37">
-        <v>1995</v>
-      </c>
-      <c r="O37" t="s">
-        <v>114</v>
-      </c>
-      <c r="P37" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>28</v>
-      </c>
-      <c r="R37" t="s">
-        <v>28</v>
-      </c>
-      <c r="S37" t="s">
-        <v>28</v>
-      </c>
-      <c r="T37" t="s">
-        <v>28</v>
-      </c>
-      <c r="U37" t="s">
-        <v>28</v>
-      </c>
-      <c r="V37" t="s">
-        <v>28</v>
-      </c>
-      <c r="W37" t="s">
-        <v>130</v>
-      </c>
-      <c r="X37" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y37">
-        <v>6204</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
-      <c r="A38" s="1">
-        <v>7268</v>
-      </c>
-      <c r="C38">
-        <v>2404040037</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38">
-        <v>695</v>
-      </c>
-      <c r="N38">
-        <v>1995</v>
-      </c>
-      <c r="O38" t="s">
-        <v>114</v>
-      </c>
-      <c r="P38" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>28</v>
-      </c>
-      <c r="R38" t="s">
-        <v>28</v>
-      </c>
-      <c r="S38" t="s">
-        <v>28</v>
-      </c>
-      <c r="T38" t="s">
-        <v>28</v>
-      </c>
-      <c r="U38" t="s">
-        <v>28</v>
-      </c>
-      <c r="V38" t="s">
-        <v>28</v>
-      </c>
-      <c r="W38" t="s">
-        <v>130</v>
-      </c>
-      <c r="X38" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y38">
-        <v>6204</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
-      <c r="A39" s="1">
-        <v>7277</v>
-      </c>
-      <c r="C39">
-        <v>2404040046</v>
-      </c>
-      <c r="D39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" t="s">
-        <v>82</v>
-      </c>
-      <c r="J39" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L39" t="s">
-        <v>96</v>
-      </c>
-      <c r="M39">
-        <v>765</v>
-      </c>
-      <c r="N39">
-        <v>2095</v>
-      </c>
-      <c r="O39" t="s">
-        <v>114</v>
-      </c>
-      <c r="P39" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>28</v>
-      </c>
-      <c r="R39" t="s">
-        <v>28</v>
-      </c>
-      <c r="S39" t="s">
-        <v>28</v>
-      </c>
-      <c r="T39" t="s">
-        <v>28</v>
-      </c>
-      <c r="U39" t="s">
-        <v>28</v>
-      </c>
-      <c r="V39" t="s">
-        <v>28</v>
-      </c>
-      <c r="W39" t="s">
-        <v>130</v>
-      </c>
-      <c r="X39" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y39">
-        <v>6204</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
-      <c r="A40" s="1">
-        <v>7278</v>
-      </c>
-      <c r="C40">
-        <v>2404040047</v>
-      </c>
-      <c r="D40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" t="s">
-        <v>82</v>
-      </c>
-      <c r="J40" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40" t="s">
-        <v>93</v>
-      </c>
-      <c r="L40" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40">
-        <v>765</v>
-      </c>
-      <c r="N40">
-        <v>2095</v>
-      </c>
-      <c r="O40" t="s">
-        <v>114</v>
-      </c>
-      <c r="P40" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>28</v>
-      </c>
-      <c r="R40" t="s">
-        <v>28</v>
-      </c>
-      <c r="S40" t="s">
-        <v>28</v>
-      </c>
-      <c r="T40" t="s">
-        <v>28</v>
-      </c>
-      <c r="U40" t="s">
-        <v>28</v>
-      </c>
-      <c r="V40" t="s">
-        <v>28</v>
-      </c>
-      <c r="W40" t="s">
-        <v>130</v>
-      </c>
-      <c r="X40" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y40">
-        <v>6204</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
-      <c r="A41" s="1">
-        <v>7279</v>
-      </c>
-      <c r="C41">
-        <v>2404040048</v>
-      </c>
-      <c r="D41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" t="s">
-        <v>82</v>
-      </c>
-      <c r="K41" t="s">
-        <v>94</v>
-      </c>
-      <c r="L41" t="s">
-        <v>96</v>
-      </c>
-      <c r="M41">
-        <v>765</v>
-      </c>
-      <c r="N41">
-        <v>2095</v>
-      </c>
-      <c r="O41" t="s">
-        <v>114</v>
-      </c>
-      <c r="P41" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>28</v>
-      </c>
-      <c r="R41" t="s">
-        <v>28</v>
-      </c>
-      <c r="S41" t="s">
-        <v>28</v>
-      </c>
-      <c r="T41" t="s">
-        <v>28</v>
-      </c>
-      <c r="U41" t="s">
-        <v>28</v>
-      </c>
-      <c r="V41" t="s">
-        <v>28</v>
-      </c>
-      <c r="W41" t="s">
-        <v>130</v>
-      </c>
-      <c r="X41" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y41">
-        <v>6204</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
-      <c r="A42" s="1">
-        <v>7280</v>
-      </c>
-      <c r="C42">
-        <v>2404040049</v>
-      </c>
-      <c r="D42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42">
-        <v>765</v>
-      </c>
-      <c r="N42">
-        <v>2095</v>
-      </c>
-      <c r="O42" t="s">
-        <v>114</v>
-      </c>
-      <c r="P42" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>28</v>
-      </c>
-      <c r="R42" t="s">
-        <v>28</v>
-      </c>
-      <c r="S42" t="s">
-        <v>28</v>
-      </c>
-      <c r="T42" t="s">
-        <v>28</v>
-      </c>
-      <c r="U42" t="s">
-        <v>28</v>
-      </c>
-      <c r="V42" t="s">
-        <v>28</v>
-      </c>
-      <c r="W42" t="s">
-        <v>130</v>
-      </c>
-      <c r="X42" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y42">
-        <v>6204</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA42">
         <v>1</v>
       </c>
     </row>
